--- a/medicine/Mort/Pheasant_Wood_Military_Cemetery/Pheasant_Wood_Military_Cemetery.xlsx
+++ b/medicine/Mort/Pheasant_Wood_Military_Cemetery/Pheasant_Wood_Military_Cemetery.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière « Pheasant Wood Military Cemetery » est un cimetière de la Première Guerre mondiale situé à Fromelles (Nord). Sa construction en 2009 et 2010 par la Commonwealth War Graves Commission (CWGC) pour inhumer 250 soldats britanniques et australiens morts les 19 et 20 juillet 1916 dans la bataille de Fromelles s'est accompagnée de celle du musée de la bataille de Fromelles, ouvert en 2014.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Construit entre 2009 et 2010, c'est le premier cimetière construit par la Commonwealth War Graves Commission depuis plus de 50 ans, le dernier ayant été construit après la Seconde Guerre mondiale. 
 Les corps ont été découverts à la suite de recherches historiques par photographies aériennes qui ont montré la présence de fosses communes à la lisière du Bois du faisan, à la sortie du village de Fromelles. La présence des corps a été confirmée en mai 2008, et 250 corps ont été exhumés en 2009. Dès 2010, les prélèvements d'ADN ont permis d'identifier 75 corps. L'identification s'est poursuivie jusqu'en 2014 au moins.
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,7 +586,9 @@
           <t>Coordonnées GPS</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">50° 36′ 28″ nord, 2° 51′ 04″ est
 </t>
